--- a/CRMProject/target/test-classes/SuiteA.xlsx
+++ b/CRMProject/target/test-classes/SuiteA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
   <si>
     <t>TCID</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>userpassword</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -279,6 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -577,7 +581,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -634,10 +638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -649,12 +653,15 @@
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -670,8 +677,11 @@
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -687,8 +697,11 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -704,13 +717,39 @@
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F4" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -726,8 +765,11 @@
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -743,13 +785,39 @@
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F8" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -765,8 +833,11 @@
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -781,6 +852,26 @@
       </c>
       <c r="E12" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -795,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CRMProject/target/test-classes/SuiteA.xlsx
+++ b/CRMProject/target/test-classes/SuiteA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
   <si>
     <t>TCID</t>
   </si>
@@ -87,9 +87,6 @@
     <t>dummyuser1</t>
   </si>
   <si>
-    <t>dummypassword</t>
-  </si>
-  <si>
     <t>dummyuser2</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
   </si>
   <si>
     <t>Enter the Password</t>
-  </si>
-  <si>
-    <t>dummyuser</t>
   </si>
   <si>
     <t>Click on SignIn Button</t>
@@ -273,7 +267,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -283,6 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -640,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -658,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -678,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -698,7 +693,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -718,27 +713,27 @@
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -746,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -766,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -780,33 +775,33 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -814,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -834,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -842,36 +837,36 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -886,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -895,7 +890,7 @@
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -904,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -921,14 +916,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,13 +933,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -951,13 +948,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -966,16 +963,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -983,13 +980,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -998,16 +995,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1015,13 +1012,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1030,10 +1027,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1044,12 +1041,10 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
@@ -1057,10 +1052,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -1070,10 +1065,10 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2"/>
     </row>

--- a/CRMProject/target/test-classes/SuiteA.xlsx
+++ b/CRMProject/target/test-classes/SuiteA.xlsx
@@ -123,9 +123,6 @@
     <t>navigateUrl</t>
   </si>
   <si>
-    <t>http://zoho.com</t>
-  </si>
-  <si>
     <t>Click on Login link</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>zohourl</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -636,7 +636,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -673,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -693,7 +693,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -713,27 +713,27 @@
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -761,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -781,27 +781,27 @@
         <v>16</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -809,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -829,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -849,24 +849,24 @@
         <v>16</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +882,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -922,7 +922,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -938,8 +938,8 @@
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -948,13 +948,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -963,13 +963,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -980,13 +980,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -995,13 +995,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -1012,13 +1012,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1027,10 +1027,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1054,8 +1054,8 @@
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>35</v>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -1065,10 +1065,10 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1091,10 +1091,6 @@
       <c r="E14" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D11" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CRMProject/target/test-classes/SuiteA.xlsx
+++ b/CRMProject/target/test-classes/SuiteA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>zohourl</t>
+  </si>
+  <si>
+    <t>https://www.zoho.com/</t>
+  </si>
+  <si>
+    <t>Verify Browser Title</t>
+  </si>
+  <si>
+    <t>verifyTitle</t>
   </si>
 </sst>
 </file>
@@ -636,7 +645,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -678,7 +687,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -879,10 +888,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -890,7 +899,7 @@
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -938,8 +947,8 @@
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -948,14 +957,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
@@ -963,85 +970,89 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1052,11 +1063,9 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
@@ -1065,10 +1074,10 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1077,8 +1086,12 @@
         <v>4</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
@@ -1090,7 +1103,19 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CRMProject/target/test-classes/SuiteA.xlsx
+++ b/CRMProject/target/test-classes/SuiteA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
   <si>
     <t>TCID</t>
   </si>
@@ -153,15 +153,6 @@
     <t>loginlink</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>nextbotton</t>
-  </si>
-  <si>
-    <t>userpassword</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -171,10 +162,22 @@
     <t>https://www.zoho.com/</t>
   </si>
   <si>
-    <t>Verify Browser Title</t>
-  </si>
-  <si>
     <t>verifyTitle</t>
+  </si>
+  <si>
+    <t>Verifytitle</t>
+  </si>
+  <si>
+    <t>loginlink_xpath</t>
+  </si>
+  <si>
+    <t>username_id</t>
+  </si>
+  <si>
+    <t>nextbotton_css</t>
+  </si>
+  <si>
+    <t>userpassword_xpath</t>
   </si>
 </sst>
 </file>
@@ -645,7 +648,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -662,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -682,7 +685,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -702,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -722,27 +725,27 @@
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -750,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -770,7 +773,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -790,27 +793,27 @@
         <v>16</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -818,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -838,7 +841,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -858,24 +861,24 @@
         <v>16</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +894,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -931,7 +934,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -948,7 +951,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -957,10 +960,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
@@ -976,7 +979,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -991,7 +994,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -1008,7 +1011,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1023,7 +1026,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -1040,7 +1043,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -1077,7 +1080,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2"/>
     </row>

--- a/CRMProject/target/test-classes/SuiteA.xlsx
+++ b/CRMProject/target/test-classes/SuiteA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -648,7 +648,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CRMProject/target/test-classes/SuiteA.xlsx
+++ b/CRMProject/target/test-classes/SuiteA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
   <si>
     <t>TCID</t>
   </si>
@@ -78,9 +78,6 @@
     <t>P2</t>
   </si>
   <si>
-    <t xml:space="preserve">Y </t>
-  </si>
-  <si>
     <t>ie</t>
   </si>
   <si>
@@ -178,6 +175,12 @@
   </si>
   <si>
     <t>userpassword_xpath</t>
+  </si>
+  <si>
+    <t>homepagetitle</t>
+  </si>
+  <si>
+    <t>validateElementPresent</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -648,7 +651,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -665,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -685,12 +688,12 @@
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -705,7 +708,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -725,27 +728,27 @@
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -753,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -773,47 +776,47 @@
         <v>12</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -821,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -841,44 +844,44 @@
         <v>12</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -891,17 +894,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
@@ -911,16 +914,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -928,13 +931,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -945,13 +948,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -960,26 +963,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -988,85 +991,89 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1077,11 +1084,9 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
@@ -1090,10 +1095,10 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -1102,8 +1107,12 @@
         <v>4</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
@@ -1114,6 +1123,15 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/CRMProject/target/test-classes/SuiteA.xlsx
+++ b/CRMProject/target/test-classes/SuiteA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
   <si>
     <t>TCID</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Rumode</t>
   </si>
   <si>
     <t>Browser</t>
@@ -588,9 +585,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -600,44 +597,66 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -668,27 +687,27 @@
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +715,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,39 +735,39 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -764,19 +783,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -784,39 +803,39 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -824,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -832,19 +851,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -852,36 +871,36 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +916,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -914,16 +933,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -931,16 +950,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -948,13 +967,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -963,13 +982,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -979,10 +998,10 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -991,13 +1010,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1006,16 +1025,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1023,13 +1042,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1038,16 +1057,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1055,13 +1074,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1070,10 +1089,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1084,7 +1103,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1095,10 +1114,10 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -1108,10 +1127,10 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2"/>
     </row>

--- a/CRMProject/target/test-classes/SuiteA.xlsx
+++ b/CRMProject/target/test-classes/SuiteA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -669,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
